--- a/biology/Médecine/Hoechst/Hoechst.xlsx
+++ b/biology/Médecine/Hoechst/Hoechst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hoechst était un groupe chimique et pharmaceutique allemand. Il tire son nom de la ville de Höchst, près de Francfort, où la société a été créée en 1863 par trois chimistes allemands : Carl Friedrich Wilhelm Meister (de), Eugen Lucius (de) et Ludwig August Müller. Après s'être recentrée sur l'industrie pharmaceutique elle fusionne avec Rhône-Poulenc Rorer, le 20 décembre 1999, pour créer le groupe Aventis. Pour les biologistes, ce groupe est surtout connu pour la création du colorant Hoechst.
@@ -512,7 +524,9 @@
           <t>Histoire de Hoechst</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Création à Höchst-sur-le Main en 1863 de la “Teerfarbenfabrik Meister, Lucius &amp; Co.”, destinée à la production de colorants synthétiques.
 1923, Hoechst est la première société à produire l’insuline.
@@ -520,9 +534,9 @@
 Le 7 décembre 1951, création par les forces américaines de la société Farbwerke Hoechst Aktiengesellschaft avec le démantèlement des activités d'IG Farben dans la zone d'occupation américaine.
 Le groupe fusionne en décembre 1964 avec l'entreprise Chemische Werke Albert à Mainz-Amöneburg.
 1974, Participation majoritaire dans Roussel-Uclaf, à la suite de la mort de Jean-Claude Roussel en [1972 (consolidé après OPA en 1996)
-1978, achat de Balenciaga, revendue en 1986[1].
-1987, Acquisition du groupe chimique américain Celanese, dans lequel sont regroupées toutes les activités chimiques de Hoechst. Le nouveau Celanese est revendu en 1999, pour se concentrer dans la pharmacie[2].
-Création en 1995, de Hoechst Marion Roussel, seconde entreprise pharmaceutique mondiale, qui regroupe toutes les activités pharmaceutiques d'Hoechst, de Marion Merrell Dow (en) (1989), et de Roussel-Uclaf (1911)[3],[4].
+1978, achat de Balenciaga, revendue en 1986.
+1987, Acquisition du groupe chimique américain Celanese, dans lequel sont regroupées toutes les activités chimiques de Hoechst. Le nouveau Celanese est revendu en 1999, pour se concentrer dans la pharmacie.
+Création en 1995, de Hoechst Marion Roussel, seconde entreprise pharmaceutique mondiale, qui regroupe toutes les activités pharmaceutiques d'Hoechst, de Marion Merrell Dow (en) (1989), et de Roussel-Uclaf (1911),.
 Fusion avec l'entreprise pharmaceutique Rhône-Poulenc Rorer, le 20 décembre 1999  pour créer le groupe Aventis
 Acquisition d'Aventis par Sanofi-Synthélabo le 31 décembre 2004 pour former le géant de l'industrie pharmaceutique Sanofi-Aventis qui devient Sanofi en 2011.</t>
         </is>
